--- a/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ｘシステム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ｘシステムユーザー名</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Testクレデンシャル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Value列以外は全て設定してください。Value列が設定されている場合はその値が採用されます。
 設定されていない場合はasset又はWindows資格情報を取得します（取得できない場合はWindows資格情報の登録を促します）。</t>
     <rPh sb="5" eb="6">
@@ -162,11 +154,48 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>guest01</t>
+    <t>Ｘシステムクレデンシャル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PASSWORD</t>
+    <t>UiPath_Frameworkサンプルプロセス.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←Value空欄により資格情報を自動取得させる例。"MainProcess.xaml：初期化"セクションのサンプルプロセスでこの資格情報を事前登録しています。</t>
+    <rPh sb="6" eb="8">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -526,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,14 +566,14 @@
   <dimension ref="A1:AB985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="91.140625" style="4" customWidth="1"/>
     <col min="6" max="28" width="8.7109375" style="2" customWidth="1"/>
@@ -593,21 +622,21 @@
     </row>
     <row r="2" spans="1:28" ht="40.5" x14ac:dyDescent="0.15">
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -618,38 +647,38 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\MyDocument\マイドキュメント\UiPath\共通部品\Customized_Attended_Framework_extension_v1_and_Activity_package-master_v2\勝又自作Attended_Framework_拡張v1\Data\サンプルRPAワーク\PARAM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1A53A2-FE19-40C0-A36B-FF5E7CDD9912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -162,7 +178,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>←Value空欄により資格情報を自動取得させる例。"MainProcess.xaml：初期化"セクションのサンプルプロセスでこの資格情報を事前登録しています。</t>
+    <t>←Value空欄により資格情報を自動取得させる例。　※"MainProcess.xaml：初期化"セクションのオプション機能でWindows資格情報マネージャにこのValueに対応する値を事前登録しています。</t>
     <rPh sb="6" eb="8">
       <t>クウラン</t>
     </rPh>
@@ -181,20 +197,63 @@
     <rPh sb="23" eb="24">
       <t>レイ</t>
     </rPh>
-    <rPh sb="43" eb="46">
+    <rPh sb="45" eb="48">
       <t>ショキカ</t>
     </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="60" eb="62">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
       <t>シカク</t>
     </rPh>
-    <rPh sb="66" eb="68">
+    <rPh sb="72" eb="74">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="88" eb="90">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
       <t>ジゼン</t>
     </rPh>
-    <rPh sb="71" eb="73">
+    <rPh sb="96" eb="98">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←Valueにユーザ名，パスワードを直書き指定する例。この方法はセキュリティ上，好ましくない為，テスト目的等で利用してください。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -202,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +343,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,18 +614,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -638,6 +697,9 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
@@ -651,6 +713,9 @@
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\MyDocument\マイドキュメント\UiPath\共通部品\Customized_Attended_Framework_extension_v1_and_Activity_package-master_v2\勝又自作Attended_Framework_拡張v1\Data\サンプルRPAワーク\PARAM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1A53A2-FE19-40C0-A36B-FF5E7CDD9912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -178,49 +172,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>←Value空欄により資格情報を自動取得させる例。　※"MainProcess.xaml：初期化"セクションのオプション機能でWindows資格情報マネージャにこのValueに対応する値を事前登録しています。</t>
-    <rPh sb="6" eb="8">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>←Valueにユーザ名，パスワードを直書き指定する例。この方法はセキュリティ上，好ましくない為，テスト目的等で利用してください。</t>
     <rPh sb="10" eb="11">
       <t>メイ</t>
@@ -254,6 +205,83 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EndSmtpSendパスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EndSmtpSendメールアカウント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UiPath_ロボットEndメール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xxx@kcd.biglobe.ne.jp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>********</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←EndSmtpSendで使用。</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここを空欄に！</t>
+    <rPh sb="3" eb="5">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←Valueを空欄にして，Windows資格情報マネージャーから自動取得の動作確認ができます。　※"MainProcess.xaml：初期化"セクションのオプション機能にてWindows資格情報マネージャへのValue自動登録も可能。</t>
+    <rPh sb="7" eb="9">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -261,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -341,9 +369,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,18 +646,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -698,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -715,39 +747,77 @@
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/サンプルRPAワーク/PARAM/Credentials.xlsx
@@ -646,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,12 +657,12 @@
   <dimension ref="A1:AB985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -717,105 +717,105 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
+      <c r="A7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
+      <c r="A8" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
